--- a/R/analysis/data/Table1.xlsx
+++ b/R/analysis/data/Table1.xlsx
@@ -395,19 +395,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>23.4615384615385</v>
+        <v>23.5</v>
       </c>
       <c r="C2" t="n">
         <v>0.518874521662771</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -435,19 +435,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>23.7037037037037</v>
+        <v>23.7142857142857</v>
       </c>
       <c r="C4" t="n">
-        <v>2.16288295523884</v>
+        <v>2.12319017234361</v>
       </c>
       <c r="D4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="n">
         <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/R/analysis/data/Table1.xlsx
+++ b/R/analysis/data/Table1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">group</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t xml:space="preserve">Experimental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1</t>
   </si>
   <si>
     <t xml:space="preserve">total</t>
@@ -435,19 +438,39 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>23.7142857142857</v>
+        <v>24.1428571428571</v>
       </c>
       <c r="C4" t="n">
-        <v>2.12319017234361</v>
+        <v>1.79130991422233</v>
       </c>
       <c r="D4" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>23.8571428571429</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.00695654274325</v>
+      </c>
+      <c r="D5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E5" t="n">
+        <v>29</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
